--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.778008535223</v>
+        <v>707.8504295581271</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.2644021617899</v>
+        <v>968.5121858784095</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.6307469379658</v>
+        <v>876.0787421735636</v>
       </c>
       <c r="AD2" t="n">
-        <v>655778.008535223</v>
+        <v>707850.4295581271</v>
       </c>
       <c r="AE2" t="n">
-        <v>897264.4021617899</v>
+        <v>968512.1858784094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08235431821199e-06</v>
+        <v>3.520323293447948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.730555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>811630.7469379657</v>
+        <v>876078.7421735636</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.1902175121973</v>
+        <v>256.0192754299097</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.7976314601432</v>
+        <v>350.2968674163248</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.0857171594951</v>
+        <v>316.8650260349565</v>
       </c>
       <c r="AD3" t="n">
-        <v>235190.2175121973</v>
+        <v>256019.2754299096</v>
       </c>
       <c r="AE3" t="n">
-        <v>321797.6314601433</v>
+        <v>350296.8674163248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.86287375591532e-06</v>
+        <v>6.530379745495881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.245833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>291085.7171594951</v>
+        <v>316865.0260349566</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.9865199015257</v>
+        <v>199.9008291652587</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.897252857119</v>
+        <v>273.5131334659498</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.5246027599597</v>
+        <v>247.4094238861335</v>
       </c>
       <c r="AD4" t="n">
-        <v>178986.5199015257</v>
+        <v>199900.8291652587</v>
       </c>
       <c r="AE4" t="n">
-        <v>244897.252857119</v>
+        <v>273513.1334659498</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.444952621661842e-06</v>
+        <v>7.514412948582423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.558333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>221524.6027599598</v>
+        <v>247409.4238861335</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.8607934441387</v>
+        <v>185.6045105072795</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.5698107350627</v>
+        <v>253.9522795690466</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.0417445877909</v>
+        <v>229.7154304313136</v>
       </c>
       <c r="AD5" t="n">
-        <v>164860.7934441387</v>
+        <v>185604.5105072795</v>
       </c>
       <c r="AE5" t="n">
-        <v>225569.8107350627</v>
+        <v>253952.2795690466</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.64992024230692e-06</v>
+        <v>7.860920880997609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.356944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>204041.7445877909</v>
+        <v>229715.4304313136</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.4602197698961</v>
+        <v>440.8224911453366</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.9273397471907</v>
+        <v>603.152780100809</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.6339234625693</v>
+        <v>545.5887252982305</v>
       </c>
       <c r="AD2" t="n">
-        <v>400460.2197698961</v>
+        <v>440822.4911453367</v>
       </c>
       <c r="AE2" t="n">
-        <v>547927.3397471907</v>
+        <v>603152.7801008089</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.753300543201599e-06</v>
+        <v>4.768141121614848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.612500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>495633.9234625692</v>
+        <v>545588.7252982305</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.5722849927558</v>
+        <v>200.7586476697641</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.3845254451003</v>
+        <v>274.6868385880951</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.110633893926</v>
+        <v>248.4711122387271</v>
       </c>
       <c r="AD3" t="n">
-        <v>170572.2849927558</v>
+        <v>200758.6476697641</v>
       </c>
       <c r="AE3" t="n">
-        <v>233384.5254451003</v>
+        <v>274686.8385880951</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.496373404086189e-06</v>
+        <v>7.786779027482613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.661111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>211110.633893926</v>
+        <v>248471.1122387271</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.930312829228</v>
+        <v>176.0261971709274</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.3507331727492</v>
+        <v>240.8468086968949</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.9888386384377</v>
+        <v>217.860727305552</v>
       </c>
       <c r="AD4" t="n">
-        <v>155930.312829228</v>
+        <v>176026.1971709274</v>
       </c>
       <c r="AE4" t="n">
-        <v>213350.7331727493</v>
+        <v>240846.8086968949</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727273964878693e-06</v>
+        <v>8.186650542285874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>192988.8386384377</v>
+        <v>217860.727305552</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.7508895505792</v>
+        <v>169.9817102845607</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.6322618597628</v>
+        <v>232.5764750750309</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.816130201636</v>
+        <v>210.37970271707</v>
       </c>
       <c r="AD2" t="n">
-        <v>151750.8895505792</v>
+        <v>169981.7102845607</v>
       </c>
       <c r="AE2" t="n">
-        <v>207632.2618597628</v>
+        <v>232576.4750750309</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.604550276961244e-06</v>
+        <v>8.712799975893406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>187816.130201636</v>
+        <v>210379.70271707</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.1293306468695</v>
+        <v>170.3601513808511</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.1500616633498</v>
+        <v>233.0942748786179</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.2845119187055</v>
+        <v>210.8480844341395</v>
       </c>
       <c r="AD3" t="n">
-        <v>152129.3306468695</v>
+        <v>170360.151380851</v>
       </c>
       <c r="AE3" t="n">
-        <v>208150.0616633498</v>
+        <v>233094.2748786179</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.615496250994908e-06</v>
+        <v>8.733512114226182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.068055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>188284.5119187055</v>
+        <v>210848.0844341395</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.4546996746855</v>
+        <v>221.7739998110102</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.6932547137895</v>
+        <v>303.4409705196363</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.431301983299</v>
+        <v>274.4809901754089</v>
       </c>
       <c r="AD2" t="n">
-        <v>193454.6996746855</v>
+        <v>221773.9998110102</v>
       </c>
       <c r="AE2" t="n">
-        <v>264693.2547137895</v>
+        <v>303440.9705196364</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.087010694844948e-06</v>
+        <v>7.445645890358683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.475000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>239431.301983299</v>
+        <v>274480.9901754089</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.7669667070122</v>
+        <v>173.1715181893576</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.0765505162687</v>
+        <v>236.9409109747648</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.1724025372369</v>
+        <v>214.3276029800589</v>
       </c>
       <c r="AD3" t="n">
-        <v>144766.9667070122</v>
+        <v>173171.5181893576</v>
       </c>
       <c r="AE3" t="n">
-        <v>198076.5505162687</v>
+        <v>236940.9109747648</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.749464397285029e-06</v>
+        <v>8.652492667967374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.711111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>179172.4025372369</v>
+        <v>214327.6029800589</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.7596586866823</v>
+        <v>178.1676085878839</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.6442601786461</v>
+        <v>243.7767822699775</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.8269834178049</v>
+        <v>220.5110683130644</v>
       </c>
       <c r="AD2" t="n">
-        <v>151759.6586866823</v>
+        <v>178167.6085878839</v>
       </c>
       <c r="AE2" t="n">
-        <v>207644.2601786461</v>
+        <v>243776.7822699775</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.399188132099598e-06</v>
+        <v>8.620991318441684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.522222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>187826.9834178048</v>
+        <v>220511.0683130643</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.9506283732688</v>
+        <v>497.5682029873126</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.2200089792634</v>
+        <v>680.7947664871226</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.5498888240755</v>
+        <v>615.8206694750468</v>
       </c>
       <c r="AD2" t="n">
-        <v>456950.6283732688</v>
+        <v>497568.2029873126</v>
       </c>
       <c r="AE2" t="n">
-        <v>625220.0089792634</v>
+        <v>680794.7664871226</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.574371753115141e-06</v>
+        <v>4.429158221811037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.068055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>565549.8888240756</v>
+        <v>615820.6694750468</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.7308137735959</v>
+        <v>215.1725923890722</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.7568491532417</v>
+        <v>294.4086336514039</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.6340902165956</v>
+        <v>266.3106868609133</v>
       </c>
       <c r="AD3" t="n">
-        <v>184730.8137735959</v>
+        <v>215172.5923890721</v>
       </c>
       <c r="AE3" t="n">
-        <v>252756.8491532417</v>
+        <v>294408.6336514039</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.307021306350423e-06</v>
+        <v>7.41014921697056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.822222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>228634.0902165957</v>
+        <v>266310.6868609133</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.6576289461153</v>
+        <v>178.9237905801266</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.0823674045679</v>
+        <v>244.8114238321585</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.3643309365543</v>
+        <v>221.4469651366797</v>
       </c>
       <c r="AD4" t="n">
-        <v>158657.6289461153</v>
+        <v>178923.7905801266</v>
       </c>
       <c r="AE4" t="n">
-        <v>217082.3674045679</v>
+        <v>244811.4238321585</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.695278383622654e-06</v>
+        <v>8.078138222014507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.423611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>196364.3309365543</v>
+        <v>221446.9651366797</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.2490032820364</v>
+        <v>179.5151649160478</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.8915118605691</v>
+        <v>245.6205682881598</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.0962517813164</v>
+        <v>222.1788859814418</v>
       </c>
       <c r="AD5" t="n">
-        <v>159249.0032820364</v>
+        <v>179515.1649160477</v>
       </c>
       <c r="AE5" t="n">
-        <v>217891.5118605691</v>
+        <v>245620.5682881598</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.695128823885646e-06</v>
+        <v>8.077880907297617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.423611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>197096.2517813164</v>
+        <v>222178.8859814418</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.7485991815676</v>
+        <v>189.047819404109</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.7338604264943</v>
+        <v>258.6635667097536</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.5262779577897</v>
+        <v>233.9770789396462</v>
       </c>
       <c r="AD2" t="n">
-        <v>154748.5991815676</v>
+        <v>189047.819404109</v>
       </c>
       <c r="AE2" t="n">
-        <v>211733.8604264943</v>
+        <v>258663.5667097536</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.185242879243933e-06</v>
+        <v>8.38999056649327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.940277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>191526.2779577897</v>
+        <v>233977.0789396462</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.4084133393486</v>
+        <v>311.7659172262729</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.4036501107838</v>
+        <v>426.571882090537</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.5258280651388</v>
+        <v>385.8604603612121</v>
       </c>
       <c r="AD2" t="n">
-        <v>282408.4133393486</v>
+        <v>311765.9172262729</v>
       </c>
       <c r="AE2" t="n">
-        <v>386403.6501107838</v>
+        <v>426571.8820905371</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.349557516451371e-06</v>
+        <v>5.932315256870368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.447222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>349525.8280651388</v>
+        <v>385860.4603612121</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.5005392652405</v>
+        <v>169.2143836084418</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.5532333209161</v>
+        <v>231.5265848647016</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.0309598250922</v>
+        <v>209.4300125548841</v>
       </c>
       <c r="AD3" t="n">
-        <v>149500.5392652405</v>
+        <v>169214.3836084417</v>
       </c>
       <c r="AE3" t="n">
-        <v>204553.2333209161</v>
+        <v>231526.5848647016</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.762491745027809e-06</v>
+        <v>8.434726766441488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.534722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>185030.9598250922</v>
+        <v>209430.0125548841</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.4196985208065</v>
+        <v>169.1335428640078</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.4426234479397</v>
+        <v>231.4159749917252</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.9309064031506</v>
+        <v>209.3299591329425</v>
       </c>
       <c r="AD4" t="n">
-        <v>149419.6985208065</v>
+        <v>169133.5428640078</v>
       </c>
       <c r="AE4" t="n">
-        <v>204442.6234479397</v>
+        <v>231415.9749917252</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.775863852836499e-06</v>
+        <v>8.458409763010553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.522222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>184930.9064031506</v>
+        <v>209329.9591329425</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.8279366137802</v>
+        <v>388.8346012038082</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.9642132462871</v>
+        <v>532.0206555389758</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.1072778066617</v>
+        <v>481.2453508700149</v>
       </c>
       <c r="AD2" t="n">
-        <v>358827.9366137802</v>
+        <v>388834.6012038082</v>
       </c>
       <c r="AE2" t="n">
-        <v>490964.2132462871</v>
+        <v>532020.6555389758</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.947188601583038e-06</v>
+        <v>5.139639574997035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.179166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>444107.2778066617</v>
+        <v>481245.3508700149</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.1350710305709</v>
+        <v>179.2247952727935</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.7356247277778</v>
+        <v>245.223271732055</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.9552422976897</v>
+        <v>221.8195068510423</v>
       </c>
       <c r="AD3" t="n">
-        <v>159135.0710305709</v>
+        <v>179224.7952727935</v>
       </c>
       <c r="AE3" t="n">
-        <v>217735.6247277778</v>
+        <v>245223.271732055</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.657304499891107e-06</v>
+        <v>8.121932375686707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.543055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>196955.2422976897</v>
+        <v>221819.5068510423</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.4142842049309</v>
+        <v>174.3334162465614</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.2764359265244</v>
+        <v>238.5306711559548</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.1125094100975</v>
+        <v>215.765638680799</v>
       </c>
       <c r="AD4" t="n">
-        <v>154414.2842049309</v>
+        <v>174333.4162465614</v>
       </c>
       <c r="AE4" t="n">
-        <v>211276.4359265244</v>
+        <v>238530.6711559548</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.731041345751339e-06</v>
+        <v>8.25052299622424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.472222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>191112.5094100975</v>
+        <v>215765.638680799</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.628091389974</v>
+        <v>623.9778821939225</v>
       </c>
       <c r="AB2" t="n">
-        <v>797.1774583770767</v>
+        <v>853.7540663790619</v>
       </c>
       <c r="AC2" t="n">
-        <v>721.0959605951577</v>
+        <v>772.2729765352016</v>
       </c>
       <c r="AD2" t="n">
-        <v>582628.091389974</v>
+        <v>623977.8821939225</v>
       </c>
       <c r="AE2" t="n">
-        <v>797177.4583770768</v>
+        <v>853754.0663790619</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.240022290232433e-06</v>
+        <v>3.807889432829389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.118055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>721095.9605951577</v>
+        <v>772272.9765352015</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.6840871821134</v>
+        <v>242.3590273383628</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.3179480941145</v>
+        <v>331.6063133298667</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.3697088375157</v>
+        <v>299.9582721981467</v>
       </c>
       <c r="AD3" t="n">
-        <v>221684.0871821133</v>
+        <v>242359.0273383628</v>
       </c>
       <c r="AE3" t="n">
-        <v>303317.9480941144</v>
+        <v>331606.3133298667</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.999189011039272e-06</v>
+        <v>6.798356267001119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.106944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>274369.7088375157</v>
+        <v>299958.2721981467</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.0897615727358</v>
+        <v>188.6793608744137</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.987827380627</v>
+        <v>258.1594254941817</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.0381119254293</v>
+        <v>233.5210522541216</v>
       </c>
       <c r="AD4" t="n">
-        <v>168089.7615727358</v>
+        <v>188679.3608744137</v>
       </c>
       <c r="AE4" t="n">
-        <v>229987.827380627</v>
+        <v>258159.4254941817</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.584303479156837e-06</v>
+        <v>7.793012083532869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.455555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>208038.1119254293</v>
+        <v>233521.0522541216</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.6179568257755</v>
+        <v>184.2075561274534</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.8693068437371</v>
+        <v>252.0409049572917</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.5035344011807</v>
+        <v>227.986474729873</v>
       </c>
       <c r="AD5" t="n">
-        <v>163617.9568257755</v>
+        <v>184207.5561274534</v>
       </c>
       <c r="AE5" t="n">
-        <v>223869.3068437371</v>
+        <v>252040.9049572917</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.651799719635843e-06</v>
+        <v>7.90775121894078e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.390277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>202503.5344011807</v>
+        <v>227986.4747298729</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.6089091734464</v>
+        <v>247.433348256908</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.1103538753796</v>
+        <v>338.5492230738561</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.56368150562</v>
+        <v>306.2385603806071</v>
       </c>
       <c r="AD2" t="n">
-        <v>218608.9091734464</v>
+        <v>247433.348256908</v>
       </c>
       <c r="AE2" t="n">
-        <v>299110.3538753796</v>
+        <v>338549.2230738561</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809162147815193e-06</v>
+        <v>6.868820752422301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>270563.68150562</v>
+        <v>306238.5603806071</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8606690264291</v>
+        <v>175.5997672553191</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9412463973208</v>
+        <v>240.2633484735997</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7636958640282</v>
+        <v>217.3329517070765</v>
       </c>
       <c r="AD3" t="n">
-        <v>146860.6690264291</v>
+        <v>175599.7672553191</v>
       </c>
       <c r="AE3" t="n">
-        <v>200941.2463973208</v>
+        <v>240263.3484735997</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.748248522629472e-06</v>
+        <v>8.562215711558154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>181763.6958640282</v>
+        <v>217332.9517070765</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.8744862865252</v>
+        <v>173.5443069303819</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.5919076652729</v>
+        <v>237.4509769765124</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.5431361267577</v>
+        <v>214.7889889984821</v>
       </c>
       <c r="AD2" t="n">
-        <v>145874.4862865251</v>
+        <v>173544.3069303819</v>
       </c>
       <c r="AE2" t="n">
-        <v>199591.9076652729</v>
+        <v>237450.9769765124</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607544863809203e-06</v>
+        <v>8.596205947612754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>180543.1361267577</v>
+        <v>214788.9889984821</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.6672482969742</v>
+        <v>170.3370689408309</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2036231546175</v>
+        <v>233.062692465857</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.5736633308018</v>
+        <v>210.8195162025262</v>
       </c>
       <c r="AD3" t="n">
-        <v>142667.2482969741</v>
+        <v>170337.0689408309</v>
       </c>
       <c r="AE3" t="n">
-        <v>195203.6231546175</v>
+        <v>233062.692465857</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.688579586813184e-06</v>
+        <v>8.747390838577457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.908333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>176573.6633308018</v>
+        <v>210819.5162025262</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.9648315295101</v>
+        <v>168.8985663310463</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.5567425969043</v>
+        <v>231.0944697328945</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.8432569877236</v>
+        <v>209.0391378847791</v>
       </c>
       <c r="AD2" t="n">
-        <v>150964.8315295101</v>
+        <v>168898.5663310463</v>
       </c>
       <c r="AE2" t="n">
-        <v>206556.7425969043</v>
+        <v>231094.4697328945</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.528869783208451e-06</v>
+        <v>8.70918453994047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.256944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>186843.2569877236</v>
+        <v>209039.1378847791</v>
       </c>
     </row>
     <row r="3">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9310818358882</v>
+        <v>169.8648166374244</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.8788088940451</v>
+        <v>232.4165360300354</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0391471329974</v>
+        <v>210.2350280300529</v>
       </c>
       <c r="AD3" t="n">
-        <v>151931.0818358882</v>
+        <v>169864.8166374244</v>
       </c>
       <c r="AE3" t="n">
-        <v>207878.8088940451</v>
+        <v>232416.5360300353</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.528698358484456e-06</v>
+        <v>8.708854883839181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.256944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>188039.1471329974</v>
+        <v>210235.0280300529</v>
       </c>
     </row>
   </sheetData>
@@ -12895,28 +12895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.179788562265</v>
+        <v>203.7027147081035</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.8474945131826</v>
+        <v>278.7150409930199</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.6248564404227</v>
+        <v>252.1148686597448</v>
       </c>
       <c r="AD2" t="n">
-        <v>170179.788562265</v>
+        <v>203702.7147081034</v>
       </c>
       <c r="AE2" t="n">
-        <v>232847.4945131826</v>
+        <v>278715.0409930199</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.837132769022372e-06</v>
+        <v>7.914467445364284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.659722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>210624.8564404227</v>
+        <v>252114.8686597448</v>
       </c>
     </row>
   </sheetData>
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.4957687032179</v>
+        <v>354.0513317293959</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.3069853138408</v>
+        <v>484.4286517145374</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.239090575134</v>
+        <v>438.195461094784</v>
       </c>
       <c r="AD2" t="n">
-        <v>314495.768703218</v>
+        <v>354051.331729396</v>
       </c>
       <c r="AE2" t="n">
-        <v>430306.9853138408</v>
+        <v>484428.6517145374</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.137403894208357e-06</v>
+        <v>5.512294878518898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.811111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>389239.090575134</v>
+        <v>438195.461094784</v>
       </c>
     </row>
     <row r="3">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.1971571981322</v>
+        <v>168.9323577924862</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1381325924266</v>
+        <v>231.1407047012105</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.655475727532</v>
+        <v>209.0809602526102</v>
       </c>
       <c r="AD3" t="n">
-        <v>149197.1571981322</v>
+        <v>168932.3577924861</v>
       </c>
       <c r="AE3" t="n">
-        <v>204138.1325924266</v>
+        <v>231140.7047012105</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.813968525463592e-06</v>
+        <v>8.45795279888878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.438888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>184655.475727532</v>
+        <v>209080.9602526102</v>
       </c>
     </row>
     <row r="4">
@@ -13404,28 +13404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.4563197748662</v>
+        <v>174.3621125698123</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.3339508477883</v>
+        <v>238.5699347314191</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.1645351879987</v>
+        <v>215.8011549957279</v>
       </c>
       <c r="AD4" t="n">
-        <v>154456.3197748662</v>
+        <v>174362.1125698123</v>
       </c>
       <c r="AE4" t="n">
-        <v>211333.9508477883</v>
+        <v>238569.9347314191</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.701335879531248e-06</v>
+        <v>8.260061683093006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.545833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>191164.5351879987</v>
+        <v>215801.1549957279</v>
       </c>
     </row>
   </sheetData>
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.8322182912436</v>
+        <v>550.9491862354776</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.5749332761309</v>
+        <v>753.8329827700351</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.9993606968242</v>
+        <v>681.8882209056984</v>
       </c>
       <c r="AD2" t="n">
-        <v>509832.2182912437</v>
+        <v>550949.1862354776</v>
       </c>
       <c r="AE2" t="n">
-        <v>697574.9332761309</v>
+        <v>753832.982770035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404852323057133e-06</v>
+        <v>4.112029469923939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.563888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>630999.3606968242</v>
+        <v>681888.2209056984</v>
       </c>
     </row>
     <row r="3">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.2873297771152</v>
+        <v>228.9757092397899</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.3054724205238</v>
+        <v>313.2946670770843</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.4124589124106</v>
+        <v>283.3942637631672</v>
       </c>
       <c r="AD3" t="n">
-        <v>198287.3297771153</v>
+        <v>228975.7092397899</v>
       </c>
       <c r="AE3" t="n">
-        <v>271305.4724205238</v>
+        <v>313294.6670770844</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.142176120409647e-06</v>
+        <v>7.082659551870965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.972222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>245412.4589124106</v>
+        <v>283394.2637631672</v>
       </c>
     </row>
     <row r="4">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.5625120043022</v>
+        <v>181.9930742031125</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.0569565591731</v>
+        <v>249.0109530923626</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.9595908806162</v>
+        <v>225.2456972183675</v>
       </c>
       <c r="AD4" t="n">
-        <v>161562.5120043022</v>
+        <v>181993.0742031125</v>
       </c>
       <c r="AE4" t="n">
-        <v>221056.9565591731</v>
+        <v>249010.9530923626</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.666768729015366e-06</v>
+        <v>7.979654450729765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>199959.5908806162</v>
+        <v>225245.6972183675</v>
       </c>
     </row>
     <row r="5">
@@ -14019,28 +14019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.3374782681815</v>
+        <v>181.7680404669918</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.7490554736251</v>
+        <v>248.7030520068146</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.681075442531</v>
+        <v>224.9671817802823</v>
       </c>
       <c r="AD5" t="n">
-        <v>161337.4782681816</v>
+        <v>181768.0404669918</v>
       </c>
       <c r="AE5" t="n">
-        <v>220749.0554736251</v>
+        <v>248703.0520068146</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.677296166892981e-06</v>
+        <v>7.997655196297593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.402777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>199681.0754425309</v>
+        <v>224967.1817802823</v>
       </c>
     </row>
   </sheetData>
@@ -14316,28 +14316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.3086702691105</v>
+        <v>235.7751327900785</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.1758920075763</v>
+        <v>322.5979383479809</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.6271752967713</v>
+        <v>291.8096438811955</v>
       </c>
       <c r="AD2" t="n">
-        <v>203308.6702691105</v>
+        <v>235775.1327900785</v>
       </c>
       <c r="AE2" t="n">
-        <v>278175.8920075763</v>
+        <v>322597.9383479808</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.220602686538063e-06</v>
+        <v>6.903234936128509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.216666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>251627.1752967713</v>
+        <v>291809.6438811955</v>
       </c>
     </row>
   </sheetData>
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.4479590799215</v>
+        <v>189.2045365386311</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.2144172462883</v>
+        <v>258.8779940070787</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.9567605828603</v>
+        <v>234.1710415966652</v>
       </c>
       <c r="AD2" t="n">
-        <v>170447.9590799215</v>
+        <v>189204.5365386311</v>
       </c>
       <c r="AE2" t="n">
-        <v>233214.4172462883</v>
+        <v>258877.9940070787</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.39276313137427e-06</v>
+        <v>8.0933697122494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.162500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>210956.7605828603</v>
+        <v>234171.0415966652</v>
       </c>
     </row>
     <row r="3">
@@ -14719,28 +14719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.6715644634177</v>
+        <v>171.7209555340839</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.5777728408471</v>
+        <v>234.9561871555124</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.8166660996093</v>
+        <v>212.532298416538</v>
       </c>
       <c r="AD3" t="n">
-        <v>143671.5644634177</v>
+        <v>171720.9555340839</v>
       </c>
       <c r="AE3" t="n">
-        <v>196577.7728408471</v>
+        <v>234956.1871555124</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.724751512269582e-06</v>
+        <v>8.705035906487431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>177816.6660996093</v>
+        <v>212532.298416538</v>
       </c>
     </row>
   </sheetData>
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.8048489226381</v>
+        <v>282.8608902993278</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.2669913754746</v>
+        <v>387.0227490493019</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.1243171109865</v>
+        <v>350.0858410698755</v>
       </c>
       <c r="AD2" t="n">
-        <v>253804.848922638</v>
+        <v>282860.8902993278</v>
       </c>
       <c r="AE2" t="n">
-        <v>347266.9913754746</v>
+        <v>387022.7490493018</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573985319054707e-06</v>
+        <v>6.384663949187851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.109722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>314124.3171109865</v>
+        <v>350085.8410698755</v>
       </c>
     </row>
     <row r="3">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.198204963581</v>
+        <v>167.7110742999571</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.7713220744521</v>
+        <v>229.4696907475081</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.419111687062</v>
+        <v>207.5694255253658</v>
       </c>
       <c r="AD3" t="n">
-        <v>148198.2049635811</v>
+        <v>167711.0742999571</v>
       </c>
       <c r="AE3" t="n">
-        <v>202771.3220744521</v>
+        <v>229469.6907475081</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.755827992085423e-06</v>
+        <v>8.495939635711037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.591666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>183419.111687062</v>
+        <v>207569.4255253658</v>
       </c>
     </row>
   </sheetData>
